--- a/datasets/tree_DBH_hollows/input/Plot 09.xlsx
+++ b/datasets/tree_DBH_hollows/input/Plot 09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amy_w\Desktop\Data Science Project\plotdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/tfn/DataScienceProject/datasets/tree_DBH_hollows/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735D6C95-6E70-4958-AD62-90A7F4859DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8215F00B-44FA-5444-B22E-F0B419DBA4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{20E0FF59-B469-6A45-9CF2-1F0580860A0E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{20E0FF59-B469-6A45-9CF2-1F0580860A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,21 +492,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBCAA0E-3E0F-044F-9F2D-06DBCE6934B6}">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="98" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="5" max="6" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="5" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,30 +537,45 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J2" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>407</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>24.9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>24.9</v>
+        <v>28.2</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -568,25 +583,25 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>28.2</v>
+        <v>21.3</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -604,15 +619,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -620,25 +635,22 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -646,22 +658,25 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>28.1</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -669,25 +684,22 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -695,22 +707,25 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>27.7</v>
+        <v>29.1</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -718,25 +733,22 @@
       <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>29.1</v>
+        <v>26.8</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -751,15 +763,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>26.8</v>
+        <v>22.8</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -767,42 +779,45 @@
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
       <c r="J11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22.8</v>
+        <v>39.5</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>39.5</v>
+        <v>33.9</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -820,15 +835,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>33.9</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -837,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -845,16 +860,19 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>34.1</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -863,27 +881,24 @@
         <v>4</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>34.1</v>
+        <v>31.9</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -901,15 +916,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>31.9</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -917,25 +932,19 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>37.200000000000003</v>
+        <v>31.8</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -947,15 +956,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>31.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -967,15 +976,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>33.799999999999997</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -987,15 +996,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>37.799999999999997</v>
+        <v>31.9</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1007,71 +1016,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>418</v>
+        <v>108</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>31.9</v>
+        <v>40.5</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>109</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>38.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
         <v>4</v>
       </c>
-      <c r="J22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>108</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>40.5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>43.7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
         <v>5</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>109</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>38.5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
@@ -1081,19 +1099,16 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>43.7</v>
+        <v>40.1</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1111,47 +1126,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>40.1</v>
+        <v>30.8</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>91</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>5</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>92</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>30.8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -1166,15 +1184,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>40.700000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1182,37 +1200,34 @@
       <c r="F28">
         <v>5</v>
       </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>41.2</v>
+        <v>32.6</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1221,15 +1236,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>32.6</v>
+        <v>39.5</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1237,25 +1252,28 @@
       <c r="F30">
         <v>4</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>39.5</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1263,34 +1281,31 @@
       <c r="F31">
         <v>4</v>
       </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>39.200000000000003</v>
+        <v>50.5</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1302,21 +1317,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>50.5</v>
+        <v>40.5</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1328,15 +1343,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>40.5</v>
+        <v>42.5</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -1354,15 +1369,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>42.5</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1380,15 +1395,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>40.299999999999997</v>
+        <v>42.2</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1406,15 +1421,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>42.2</v>
+        <v>43.1</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -1432,74 +1447,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>43.1</v>
+        <v>39.1</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>102</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>46.1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
         <v>5</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>101</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>39.1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>107</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
         <v>4</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>102</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>46.1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40">
-        <v>5</v>
-      </c>
       <c r="G40">
         <v>0</v>
       </c>
@@ -1510,84 +1525,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>107</v>
+        <v>419</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29.2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>29.2</v>
-      </c>
-      <c r="J42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
-      <c r="D43" s="2">
-        <v>29.8</v>
+      <c r="D43">
+        <v>31.5</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <v>3</v>
       </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="D44">
-        <v>31.5</v>
+        <v>30.4</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
@@ -1605,15 +1620,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="D45">
-        <v>30.4</v>
+        <v>21.9</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -1621,25 +1636,22 @@
       <c r="F45">
         <v>3</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="D46">
-        <v>21.9</v>
+        <v>29.8</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -1647,22 +1659,25 @@
       <c r="F46">
         <v>3</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="D47">
-        <v>29.8</v>
+        <v>27</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
@@ -1670,7 +1685,7 @@
       <c r="F47">
         <v>3</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" s="2">
@@ -1680,15 +1695,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>24.7</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
@@ -1696,7 +1711,7 @@
       <c r="F48">
         <v>3</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>0</v>
       </c>
       <c r="H48" s="2">
@@ -1706,15 +1721,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="D49">
-        <v>24.7</v>
+        <v>22.6</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -1732,15 +1747,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="D50">
-        <v>22.6</v>
+        <v>21</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
@@ -1758,47 +1773,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="D51">
+        <v>41</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>41</v>
+        <v>44.6</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>20</v>
+      <c r="G52" s="2">
+        <v>0</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -1807,18 +1822,18 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="D53">
-        <v>44.6</v>
+        <v>35</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
@@ -1836,15 +1851,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
@@ -1862,15 +1877,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="D55">
-        <v>38.5</v>
+        <v>36.9</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
@@ -1888,15 +1903,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="D56">
-        <v>36.9</v>
+        <v>35.5</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -1914,19 +1929,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="D57">
-        <v>35.5</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
       <c r="G57" s="2">
         <v>0</v>
       </c>
@@ -1936,88 +1954,88 @@
       <c r="I57" s="2">
         <v>0</v>
       </c>
-      <c r="J57" t="s">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>404</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>35.1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>416</v>
-      </c>
-      <c r="B58">
-        <v>6</v>
-      </c>
-      <c r="D58">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="D59">
-        <v>35.1</v>
+        <v>33</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
       <c r="J59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>418</v>
+        <v>93</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
       <c r="D60">
-        <v>33</v>
+        <v>44.3</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F60">
-        <v>3</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -2026,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <v>44.3</v>
+        <v>41.2</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -2043,10 +2061,13 @@
       <c r="I61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -2055,47 +2076,44 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <v>41.2</v>
+        <v>55.8</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>103</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>45.8</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63">
         <v>5</v>
       </c>
-      <c r="G62" s="2">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>104</v>
-      </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63">
-        <v>55.8</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63">
-        <v>6</v>
-      </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <v>0</v>
       </c>
       <c r="H63" s="2">
@@ -2105,9 +2123,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -2116,43 +2134,43 @@
         <v>10</v>
       </c>
       <c r="D64">
-        <v>45.8</v>
+        <v>51.9</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>101</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>44.6</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65">
         <v>5</v>
       </c>
-      <c r="G64" s="2">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>102</v>
-      </c>
-      <c r="B65">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65">
-        <v>51.9</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65">
-        <v>6</v>
-      </c>
       <c r="G65" s="2">
         <v>0</v>
       </c>
@@ -2163,9 +2181,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -2174,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <v>44.6</v>
+        <v>48.5</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -2192,9 +2210,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -2203,7 +2221,7 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <v>48.5</v>
+        <v>45.5</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -2221,9 +2239,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -2232,7 +2250,7 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <v>45.5</v>
+        <v>49.9</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -2250,9 +2268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -2261,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="D69">
-        <v>49.9</v>
+        <v>45.4</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -2279,9 +2297,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -2290,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="D70">
-        <v>45.4</v>
+        <v>49.6</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -2308,9 +2326,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -2319,7 +2337,7 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -2337,9 +2355,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -2348,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="D72">
-        <v>49.3</v>
+        <v>43.2</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -2366,9 +2384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -2377,43 +2395,43 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <v>43.2</v>
+        <v>38.1</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>106</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>46</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74">
         <v>5</v>
       </c>
-      <c r="G73" s="2">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>94</v>
-      </c>
-      <c r="B74">
-        <v>6</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74">
-        <v>38.1</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
       <c r="G74" s="2">
         <v>0</v>
       </c>
@@ -2423,74 +2441,45 @@
       <c r="I74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>106</v>
-      </c>
-      <c r="B75">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75">
-        <v>46</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75">
-        <v>5</v>
-      </c>
-      <c r="G75" s="2">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2">
-        <v>0</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="J74" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
